--- a/christory/data/civs-base.xlsx
+++ b/christory/data/civs-base.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>civ</t>
   </si>
@@ -31,16 +31,31 @@
     <t>wars</t>
   </si>
   <si>
+    <t>color</t>
+  </si>
+  <si>
     <t>FRA</t>
   </si>
   <si>
+    <t>['22/255', '39/255', '136/255']</t>
+  </si>
+  <si>
     <t>SPA</t>
   </si>
   <si>
+    <t>['232/255', '198/255', '28/255']</t>
+  </si>
+  <si>
     <t>ITA</t>
   </si>
   <si>
+    <t>['72/255', '193/255', '78/255']</t>
+  </si>
+  <si>
     <t>RUS</t>
+  </si>
+  <si>
+    <t>['3/255', '97/255', '30/255']</t>
   </si>
 </sst>
 </file>
@@ -58,7 +73,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -90,13 +105,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -409,20 +421,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,50 +451,65 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
